--- a/CDM Content/Energy &  Resources/CDM_SustainabilityTargets.xlsx
+++ b/CDM Content/Energy &  Resources/CDM_SustainabilityTargets.xlsx
@@ -422,7 +422,7 @@
   <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -681,18 +681,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -714,6 +714,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99A24C1D-9994-4866-9989-C63206960D55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B31AB8-993E-4D4B-AEA8-7989F5843AC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -727,12 +735,4 @@
     <ds:schemaRef ds:uri="da2ca412-be8f-4031-b82f-0db1c7fd28cd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99A24C1D-9994-4866-9989-C63206960D55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>